--- a/new_kp_info/new_kp_shablon.xlsx
+++ b/new_kp_info/new_kp_shablon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TradeTable_Smarty_PDO\new_kp_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\InfoKP\new_kp_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,9 +77,6 @@
     <t>alekto.lub@ya.ru</t>
   </si>
   <si>
-    <t>Добрый день!</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">    В ответ на Ваш запрос предлагаем рассмотреть приобретение продукции на следующих условиях:</t>
+  </si>
+  <si>
+    <t>Здравствуйте!</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>682027</xdr:colOff>
+      <xdr:colOff>662977</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -695,7 +695,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
     <col min="2" max="2" width="1.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" style="2" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="7" style="3" customWidth="1"/>
@@ -868,7 +868,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -884,7 +884,7 @@
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -900,27 +900,27 @@
     </row>
     <row r="18" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>17</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>18</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
